--- a/db/log/log.xlsx
+++ b/db/log/log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="log-result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Time</t>
   </si>
@@ -28,23 +28,229 @@
     <t>SegmentTime</t>
   </si>
   <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
     <t>OCRResult</t>
   </si>
   <si>
     <t>SegmentResult</t>
   </si>
   <si>
-    <t>ImageURL</t>
+    <t>ChosenName</t>
+  </si>
+  <si>
+    <t>ChosenAddress</t>
+  </si>
+  <si>
+    <t>ChosenPhone</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:03:43</t>
+  </si>
+  <si>
+    <t>1665</t>
+  </si>
+  <si>
+    <t>5119</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/SUq4dm4LzQP6u_-ibsv_swtqs8lo4eSV46MHiCWQzLwslwb0Po6Dp6POjN_qOGmaULJbHfmNGA8JyFWqtvWR=s400</t>
+  </si>
+  <si>
+    <t>"﻿Eia đình bà mông lợi chung. 0938317113, 5 Phạm Ngu Lão, Phường 3, Gò Vấp, Hồ Chí Minh"</t>
+  </si>
+  <si>
+    <t>[{'address': ' 5 Phạm Ngu Lão, Phường 3, Gò Vấp, Hồ Chí Minh"', 'phone': ' 0938317113,', 'url': '', 'email': '', 'score': 2.7203178128963446, 'name': '"\ufeffEia đình bà mông lợi chung.'}, {'address': ' 5 Phạm Ngu Lão, Phường 3, Gò Vấp, Hồ ', 'phone': '"\ufeffEia đình bà mông lợi chung. 0938317113,', 'url': '', 'email': '', 'score': 2.4176212867173881, 'name': 'Chí Minh"'}, {'address': ' 5 Phạm Ngu Lão, Phường 3, Gò Vấp,', 'phone': '"\ufeffEia đình bà mông lợi chung. 0938317113,', 'url': '', 'email': '', 'score': 2.4039719359327365, 'name': ' Hồ Chí Minh"'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:49:29</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/riHFxvVm9-mQ1sqGO_uYI35HvWeTGOiLr2zuRB4GXYtqz5k9vYKdA1tnRUbsrOaHX_9MkOmW4IuPdOMi1RPIMZg=s400</t>
+  </si>
+  <si>
+    <t>"﻿01664833202, 3 Võ Văn Tần, phường 6, Quận 3, Hồ Chí Minh, Nguyễn Thi Hải Yến"</t>
+  </si>
+  <si>
+    <t>[{'address': ' 3 Võ Văn Tần, phường 6, Quận 3, Hồ Chí Minh, Nguyễn ', 'phone': '"\ufeff01664833202,', 'url': '', 'email': '', 'score': 2.7656620580251783, 'name': 'Thi Hải Yến"'}, {'address': ' 3 Võ Văn Tần, phường 6, Quận 3, Hồ Chí Minh,', 'phone': '"\ufeff01664833202,', 'url': '', 'email': '', 'score': 2.7332727550757436, 'name': ' Nguyễn Thi Hải Yến"'}, {'address': ' 3 Võ Văn Tần, phường 6, Quận 3, Hồ Chí Minh, Nguyễn Thi ', 'phone': '"\ufeff01664833202,', 'url': '', 'email': '', 'score': 2.4323543387393007, 'name': 'Hải Yến"'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:55:28</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>4920</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/QUEzOdAFsBazhWTj1kvPRRWvyfOAORG3FfnwqPVp9v2PY74BYpnB7chGkfM6Lw826OK6Z3pSDEA3mdRM8M23=s400</t>
+  </si>
+  <si>
+    <t>"﻿0938317113, 420 Hồng Bàng, phường 16, Quận 11, Hồ Chí Minh, Trung Tâm Ung Dụng Năng Lượng Sinh Học"</t>
+  </si>
+  <si>
+    <t>[{'address': ' 420 Hồng Bàng, phường 16, Quận 11, Hồ Chí Minh, Trung Tâm Ung Dụng Năng Lượng ', 'phone': '"\ufeff0938317113,', 'url': '', 'email': '', 'score': 2.9523165360071131, 'name': 'Sinh Học"'}, {'address': ' 420 Hồng Bàng, phường 16, Quận 11, Hồ Chí Minh, Trung Tâm Ung Dụng Năng ', 'phone': '"\ufeff0938317113,', 'url': '', 'email': '', 'score': 2.9513727210380098, 'name': 'Lượng Sinh Học"'}, {'address': ' 420 Hồng Bàng, phường 16, Quận 11, Hồ Chí Minh, Trung Tâm Ung Dụng ', 'phone': '"\ufeff0938317113,', 'url': '', 'email': '', 'score': 2.9481628774021527, 'name': 'Năng Lượng Sinh Học"'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:56:54</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>5250</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/LHST11YOlklmzuzd_4RDo_G44hzQHvgLP-_gOQyaXxh0g5E11_a_7cGQ-l2xuBWeSRmgzencPYy1_xdavW6RqA0=s400</t>
+  </si>
+  <si>
+    <t>"﻿0914943927, chi Vân phòng nhân sự công ty PUNGKOOK, Đường số 8. Tân Thuận Đông, Quận 7. Hồ Chí Minh"</t>
+  </si>
+  <si>
+    <t>[{'address': ' Đường số 8. Tân Thuận Đông, Quận 7. Hồ Chí Minh"', 'phone': '"\ufeff0914943927,', 'url': '', 'email': '', 'score': 2.9321813516643873, 'name': ' chi Vân phòng nhân sự công ty PUNGKOOK,'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:57:36</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>5032</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/EtOOR_s2h6S_n113UToreJJrqHjjKWlL6c1WhStoBt6vsJ23EK_ZV85An7CTk6HLun5c_QzNXg7B8teFBxs-Ag=s400</t>
+  </si>
+  <si>
+    <t>"﻿3 Tháng 2, Hồ Chí Minh, Vietnam, 09.1868.4777, Tôn Nữ Minh Tâm (phòng hành chính]"</t>
+  </si>
+  <si>
+    <t>[{'address': '"\ufeff3 Tháng 2, Hồ Chí Minh, Vietnam,', 'phone': ' 09.1868.4777,', 'url': '', 'email': '', 'score': 2.8671644810319314, 'name': ' Tôn Nữ Minh Tâm (phòng hành chính]"'}, {'address': '"\ufeff3 Tháng 2, Hồ Chí Minh, Vietnam, 09.', 'phone': '1868.4777,', 'url': '', 'email': '', 'score': 2.7463320410225376, 'name': ' Tôn Nữ Minh Tâm (phòng hành chính]"'}, {'address': '"\ufeff3 Tháng 2, Hồ Chí Minh, Vietnam, 09.1868.4777, Tôn Nữ Minh Tâm (phòng ', 'phone': '', 'url': '', 'email': '', 'score': 1.5122801904391516, 'name': 'hành chính]"'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 18:58:42</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>5294</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/0S299lUhkhNB0LR1--5BxCYmDPDfnMWmJMovQhj69xPU6fa3CdkH2yHllmIghbfDHwe8MJF0moztCKC4CK-x=s400</t>
+  </si>
+  <si>
+    <t>"﻿21 Cách Mạng Tháng 8, Phường 15, Quận 10. Hồ Chí Minh, 09383171 13. anh tiến - quân - sân trượt patin skate rink"</t>
+  </si>
+  <si>
+    <t>[{'address': '"\ufeff21 Cách Mạng Tháng 8, Phường 15, Quận 10. Hồ Chí Minh,', 'phone': ' 09383171 13.', 'url': '', 'email': '', 'score': 2.7507918934958262, 'name': ' anh tiến - quân - sân trượt patin skate rink"'}, {'address': '"\ufeff21 Cách Mạng Tháng 8, Phường 15, Quận ', 'phone': '10. Hồ Chí Minh, 09383171 13.', 'url': '', 'email': '', 'score': 2.2831360166801247, 'name': ' anh tiến - quân - sân trượt patin skate rink"'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 19:10:15</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>5419</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/iiE2tfvubX0JikmsF_epQLddyCtWgviLc39Gko0rt-pJcG6wfy5eqqFCIFQquLzSHwN-wVvCyeu2DjOWnIed3Q=s400</t>
+  </si>
+  <si>
+    <t>"﻿0938317113. PHAM THI KIM ANH. 1873/20/6 Phạm Thế Hiển, Phường 6. Quận 8, Hồ Chí Minh,"</t>
+  </si>
+  <si>
+    <t>[{'score': 2.9566328560283885, 'address': '1873/20/6 Phạm Thế Hiển, Phường 6. Quận 8, Hồ Chí Minh', 'email': '', 'url': '', 'name': 'PHAM THI KIM ANH', 'phone': '\ufeff0938317113'}, {'score': 2.8781639673740438, 'address': '20/6 Phạm Thế Hiển, Phường 6. Quận 8, Hồ', 'email': '', 'url': '', 'name': 'Chí Minh', 'phone': '\ufeff0938317113. PHAM THI KIM ANH. 1873'}, {'score': 2.877339652127878, 'address': '20/6 Phạm Thế Hiển, Phường 6. Quận 8', 'email': '', 'url': '', 'name': 'Hồ Chí Minh', 'phone': '\ufeff0938317113. PHAM THI KIM ANH. 1873'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 19:12:32</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>4529</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/QFpfn_P1VF0QlunxxBNUo2bXTu5AwcgSixuD0kHXIvX4qPqWt416ZA_NstIO3ClxMmcukGEP6O2XcfTekOgpRQ=s400</t>
+  </si>
+  <si>
+    <t>"﻿Nhà mẫu Vinhomes Ba Son, 0938317113, 2 Tôn Đức Thắng, Bến Nghé, Quận 1, Hồ Chí Minh"</t>
+  </si>
+  <si>
+    <t>[{'score': 2.786579792664226, 'address': '2 Tôn Đức Thắng, Bến Nghé, Quận 1, Hồ Chí Minh', 'email': '', 'url': '', 'name': '\ufeffNhà mẫu Vinhomes Ba Son', 'phone': '0938317113'}]</t>
+  </si>
+  <si>
+    <t>Tue, 31 May 2016 19:13:09</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>4839</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>http://lh3.googleusercontent.com/2fvPbnQjLq8eZM0HEtg05vIOP2Gf_C8mYMoahO1cp6kFxjlu0P7Ko0vgmEgQ0_NK6ckC8KowCkd117BraoH5YRk=s400</t>
+  </si>
+  <si>
+    <t>"﻿Anh Chiến, 561 Nguyễn Thị Thập, Tân Phong. Quận 7, Hồ Chí Minh. O9-19541177"</t>
+  </si>
+  <si>
+    <t>[{'score': 2.9262835043575892, 'address': '561 Nguyễn Thị Thập, Tân Phong. Quận 7, Hồ Chí Minh. O9', 'email': '', 'url': '', 'name': '\ufeffAnh Chiến', 'phone': '19541177'}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,19 +276,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -196,7 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,16 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,16 +593,243 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>